--- a/webroot/export/customexcel/default_templates/assessment_report_template.xlsx
+++ b/webroot/export/customexcel/default_templates/assessment_report_template.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\pocor-openemis-core\webroot\export\customexcel\default_templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D1B356-93FD-4312-A261-CD60EB40C1D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7820" yWindow="760" windowWidth="27320" windowHeight="15360" tabRatio="500"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="4" r:id="rId1"/>
@@ -24,9 +30,6 @@
     <t>Grade:</t>
   </si>
   <si>
-    <t>${Assessments.education_grade.name}</t>
-  </si>
-  <si>
     <t>Class:</t>
   </si>
   <si>
@@ -67,13 +70,16 @@
   </si>
   <si>
     <t>${"image":{"displayValue":"Institutions.logo_content","imageWidth":"67","imageMarginLeft":"10","imageMarginTop":"1"}}</t>
+  </si>
+  <si>
+    <t>${EducationGrades.name}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -394,7 +400,7 @@
     <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -730,14 +736,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AG11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="2.83203125" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
@@ -756,23 +762,23 @@
     </row>
     <row r="2" spans="2:33" ht="25" customHeight="1">
       <c r="B2" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F2" s="14"/>
     </row>
     <row r="3" spans="2:33" ht="25" customHeight="1">
       <c r="B3" s="21"/>
       <c r="C3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>2</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>3</v>
       </c>
       <c r="F3" s="9"/>
     </row>
@@ -783,19 +789,19 @@
     </row>
     <row r="5" spans="2:33" s="1" customFormat="1" ht="40" customHeight="1">
       <c r="B5" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="17" t="s">
+      <c r="E5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>12</v>
-      </c>
       <c r="F5" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG5" s="6"/>
     </row>
@@ -813,25 +819,25 @@
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
       <c r="F7" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG7" s="6"/>
     </row>
     <row r="8" spans="2:33" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="B8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="D8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>14</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:33">

--- a/webroot/export/customexcel/default_templates/assessment_report_template.xlsx
+++ b/webroot/export/customexcel/default_templates/assessment_report_template.xlsx
@@ -1,22 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\pocor-openemis-core\webroot\export\customexcel\default_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sherman/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2EB56B-D7B3-4371-A1CB-CE47C1657B88}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C281AE1D-7EB5-614F-8BD2-7F36EE2F7483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -25,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>${"image":{"displayValue":"Institutions.logo_content","imageWidth":"67","imageMarginLeft":"10","imageMarginTop":"1"}}</t>
   </si>
@@ -79,13 +90,19 @@
   </si>
   <si>
     <t>${"match": {"displayValue": "GroupAssessmentItemResults.academic_term_total_weighted_marks","type": "number","format": "2","rows": {"matchFrom": "ClassStudents.student_id","matchTo": "GroupAssessmentItemResults.student_id"},"columns": {"matchFrom": "GroupAssessmentItems.subject_classification","matchTo": "GroupAssessmentItemResults.subject_classification","children": {"columns": {"matchFrom": "GroupAssessmentPeriodsWithTerms.academic_term_value","matchTo": "GroupAssessmentItemResults.academic_term_value"}}}}}</t>
+  </si>
+  <si>
+    <t>Absences</t>
+  </si>
+  <si>
+    <t>${"match": {"displayValue": "InstitutionStudentAbsences.number_of_days","type": "integer","rows": {"matchFrom": "ClassStudents.student_id","matchTo": "InstitutionStudentAbsences.student_id"}}}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -98,24 +115,26 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -128,7 +147,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -153,6 +172,14 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="178"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -209,12 +236,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -223,7 +251,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -255,21 +283,22 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{A40B0DA1-40F7-D54E-897D-2721F3B5E351}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -652,32 +681,32 @@
   <dimension ref="B1:AG9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.875" customWidth="1"/>
-    <col min="2" max="2" width="11.375" customWidth="1"/>
-    <col min="3" max="3" width="28.375" customWidth="1"/>
-    <col min="4" max="6" width="11.375" customWidth="1"/>
-    <col min="7" max="7" width="9.875" customWidth="1"/>
-    <col min="8" max="9" width="10.875" customWidth="1"/>
-    <col min="10" max="10" width="10.625" customWidth="1"/>
-    <col min="11" max="11" width="10.875" customWidth="1"/>
-    <col min="12" max="12" width="10.625" customWidth="1"/>
-    <col min="13" max="13" width="10.875" customWidth="1"/>
-    <col min="14" max="14" width="10.625" customWidth="1"/>
-    <col min="15" max="18" width="10.875" customWidth="1"/>
-    <col min="19" max="1025" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="2.83203125" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" customWidth="1"/>
+    <col min="4" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" customWidth="1"/>
+    <col min="8" max="9" width="10.83203125" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" customWidth="1"/>
+    <col min="15" max="18" width="10.83203125" customWidth="1"/>
+    <col min="19" max="1025" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:33" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="2:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+    <row r="2" spans="2:33" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -688,8 +717,8 @@
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="2:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="16"/>
+    <row r="3" spans="2:33" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="18"/>
       <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
@@ -698,8 +727,8 @@
       </c>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="2:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
+    <row r="4" spans="2:33" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="18"/>
       <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
@@ -708,22 +737,22 @@
       </c>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="2:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:33" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="2:33" s="8" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="17" t="s">
+    <row r="6" spans="2:33" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="19" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="9" t="s">
@@ -731,25 +760,28 @@
       </c>
       <c r="AG6" s="10"/>
     </row>
-    <row r="7" spans="2:33" s="8" customFormat="1" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
+    <row r="7" spans="2:33" s="8" customFormat="1" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
       <c r="F7" s="11"/>
       <c r="AG7" s="10"/>
     </row>
     <row r="8" spans="2:33" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="18" t="s">
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="16" t="s">
         <v>16</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="AG8" s="10"/>
     </row>
-    <row r="9" spans="2:33" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:33" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="13" t="s">
         <v>11</v>
       </c>
@@ -762,8 +794,11 @@
       <c r="E9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="17" t="s">
         <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
